--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,589 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1588,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,17 +1600,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1640,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.45</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1635,14 +1678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -1651,14 +1716,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1667,13 +1754,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2215,7 +2216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2226,17 +2227,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2267,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2262,14 +2305,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.45</v>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2278,14 +2343,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2294,14 +2381,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2310,13 +2419,241 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0542</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.1784</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,224 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.1294</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +929,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +959,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>673081</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合A</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.20</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0878</t>
+          <t>0.2300</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -819,26 +1007,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.62</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.1668</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +1035,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67.31</t>
+          <t>72.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0317</t>
+          <t>0.1237</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -885,36 +1073,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>673083</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合C</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60.20</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0255</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -923,36 +1111,416 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>003822</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>中信建投行业轮换混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.62</t>
+          <t>72.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0903</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,7 +2179,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1641,36 +2209,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>673081</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>西部利得祥运灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>60.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2300</t>
+          <t>0.0878</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1689,26 +2257,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>81.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1668</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1717,36 +2285,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>673020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>西部利得成长精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.24</t>
+          <t>67.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1237</t>
+          <t>0.0317</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1755,36 +2323,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>673083</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>西部利得祥运灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>60.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1053</t>
+          <t>0.0255</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1793,416 +2361,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003822</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.09</t>
+          <t>81.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0903</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>78.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010157</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010158</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2237,7 +2425,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2267,36 +2455,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1784</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2305,224 +2493,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1294</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0898</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014171</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2536,128 +2536,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45</v>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002191-劲嘉股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -895,632 +1044,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2300</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1668</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>72.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1237</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1053</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>78.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010157</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010158</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1595,26 +1118,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8538</t>
+          <t>0.2300</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1633,26 +1156,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2013</t>
+          <t>0.1668</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1661,36 +1184,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>72.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0836</t>
+          <t>0.1237</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1699,36 +1222,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0772</t>
+          <t>0.1053</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1737,32 +1260,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>003822</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>中信建投行业轮换混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>72.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0625</t>
+          <t>0.0903</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1775,36 +1298,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0509</t>
+          <t>0.0472</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1813,36 +1336,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>673020</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得成长精选灵活配置混合</t>
+          <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1851,36 +1374,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>007468</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>中信建投策略精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>78.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1889,27 +1412,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1918,7 +1441,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1927,36 +1450,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>72.09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1965,36 +1488,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501069</t>
+          <t>007469</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+          <t>中信建投策略精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>78.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2003,36 +1526,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004917</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合A</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.68</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2041,36 +1564,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2079,36 +1602,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004918</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中银证券祥瑞混合C</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.68</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2117,34 +1640,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>501069</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2153,6 +1678,630 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2398,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2530,7 +2679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
